--- a/app/Licenciatura_em_Economia_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Economia_Pos_Laboral.xlsx
@@ -24,47 +24,43 @@
     <sheet name="20151355" sheetId="14" r:id="rId17"/>
     <sheet name="20151334" sheetId="15" r:id="rId18"/>
     <sheet name="20151368" sheetId="16" r:id="rId19"/>
-    <sheet name="20154421" sheetId="17" r:id="rId20"/>
-    <sheet name="20154522" sheetId="18" r:id="rId21"/>
-    <sheet name="20151356" sheetId="19" r:id="rId22"/>
-    <sheet name="20151354" sheetId="20" r:id="rId23"/>
-    <sheet name="20151335" sheetId="21" r:id="rId24"/>
-    <sheet name="20151331" sheetId="22" r:id="rId25"/>
-    <sheet name="20151365" sheetId="23" r:id="rId26"/>
-    <sheet name="20151333" sheetId="24" r:id="rId27"/>
-    <sheet name="20151321" sheetId="25" r:id="rId28"/>
-    <sheet name="20151369" sheetId="26" r:id="rId29"/>
-    <sheet name="20151367" sheetId="27" r:id="rId30"/>
-    <sheet name="20151352" sheetId="28" r:id="rId31"/>
-    <sheet name="20151348" sheetId="29" r:id="rId32"/>
-    <sheet name="20151363" sheetId="30" r:id="rId33"/>
-    <sheet name="20151320" sheetId="31" r:id="rId34"/>
-    <sheet name="20151340" sheetId="32" r:id="rId35"/>
-    <sheet name="20154420" sheetId="33" r:id="rId36"/>
-    <sheet name="20151341" sheetId="34" r:id="rId37"/>
-    <sheet name="20151337" sheetId="35" r:id="rId38"/>
-    <sheet name="20151347" sheetId="36" r:id="rId39"/>
-    <sheet name="20151350" sheetId="37" r:id="rId40"/>
-    <sheet name="20151327" sheetId="38" r:id="rId41"/>
-    <sheet name="20151357" sheetId="39" r:id="rId42"/>
-    <sheet name="20154422" sheetId="40" r:id="rId43"/>
-    <sheet name="20151328" sheetId="41" r:id="rId44"/>
-    <sheet name="20151338" sheetId="42" r:id="rId45"/>
-    <sheet name="20151353" sheetId="43" r:id="rId46"/>
-    <sheet name="20151336" sheetId="44" r:id="rId47"/>
-    <sheet name="20151343" sheetId="45" r:id="rId48"/>
-    <sheet name="20151322" sheetId="46" r:id="rId49"/>
-    <sheet name="20151358" sheetId="47" r:id="rId50"/>
-    <sheet name="20151346" sheetId="48" r:id="rId51"/>
-    <sheet name="20151329" sheetId="49" r:id="rId52"/>
-    <sheet name="20151349" sheetId="50" r:id="rId53"/>
-    <sheet name="20151362" sheetId="51" r:id="rId54"/>
-    <sheet name="20151324" sheetId="52" r:id="rId55"/>
-    <sheet name="20151339" sheetId="53" r:id="rId56"/>
-    <sheet name="20151345" sheetId="54" r:id="rId57"/>
-    <sheet name="20151359" sheetId="55" r:id="rId58"/>
-    <sheet name="Sheet2" sheetId="56" r:id="rId59"/>
-    <sheet name="Sheet3" sheetId="57" r:id="rId60"/>
+    <sheet name="20151356" sheetId="17" r:id="rId20"/>
+    <sheet name="20151354" sheetId="18" r:id="rId21"/>
+    <sheet name="20151335" sheetId="19" r:id="rId22"/>
+    <sheet name="20151331" sheetId="20" r:id="rId23"/>
+    <sheet name="20151365" sheetId="21" r:id="rId24"/>
+    <sheet name="20151333" sheetId="22" r:id="rId25"/>
+    <sheet name="20151321" sheetId="23" r:id="rId26"/>
+    <sheet name="20151369" sheetId="24" r:id="rId27"/>
+    <sheet name="20151367" sheetId="25" r:id="rId28"/>
+    <sheet name="20151352" sheetId="26" r:id="rId29"/>
+    <sheet name="20151348" sheetId="27" r:id="rId30"/>
+    <sheet name="20151363" sheetId="28" r:id="rId31"/>
+    <sheet name="20151320" sheetId="29" r:id="rId32"/>
+    <sheet name="20151340" sheetId="30" r:id="rId33"/>
+    <sheet name="20151341" sheetId="31" r:id="rId34"/>
+    <sheet name="20151337" sheetId="32" r:id="rId35"/>
+    <sheet name="20151347" sheetId="33" r:id="rId36"/>
+    <sheet name="20151350" sheetId="34" r:id="rId37"/>
+    <sheet name="20151327" sheetId="35" r:id="rId38"/>
+    <sheet name="20151357" sheetId="36" r:id="rId39"/>
+    <sheet name="20151328" sheetId="37" r:id="rId40"/>
+    <sheet name="20151338" sheetId="38" r:id="rId41"/>
+    <sheet name="20151353" sheetId="39" r:id="rId42"/>
+    <sheet name="20151336" sheetId="40" r:id="rId43"/>
+    <sheet name="20151343" sheetId="41" r:id="rId44"/>
+    <sheet name="20151322" sheetId="42" r:id="rId45"/>
+    <sheet name="20151358" sheetId="43" r:id="rId46"/>
+    <sheet name="20151346" sheetId="44" r:id="rId47"/>
+    <sheet name="20151329" sheetId="45" r:id="rId48"/>
+    <sheet name="20151349" sheetId="46" r:id="rId49"/>
+    <sheet name="20151362" sheetId="47" r:id="rId50"/>
+    <sheet name="20151324" sheetId="48" r:id="rId51"/>
+    <sheet name="20151339" sheetId="49" r:id="rId52"/>
+    <sheet name="20151345" sheetId="50" r:id="rId53"/>
+    <sheet name="20151359" sheetId="51" r:id="rId54"/>
+    <sheet name="Sheet2" sheetId="52" r:id="rId55"/>
+    <sheet name="Sheet3" sheetId="53" r:id="rId56"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -72,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -221,9 +217,6 @@
     <t>Joana Emilia Uaciquete</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -260,9 +253,6 @@
     <t>Helena Piedade Pondja</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -293,9 +283,6 @@
     <t xml:space="preserve">Lina Da Costa Fereira </t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Cartao de Eleitor</t>
   </si>
   <si>
@@ -440,9 +427,6 @@
     <t>Perzelina F.nhagupe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110101264367F</t>
   </si>
   <si>
@@ -575,288 +559,270 @@
     <t>+258821407717</t>
   </si>
   <si>
-    <t>Moisés</t>
-  </si>
-  <si>
-    <t>Tonearda Bernardo</t>
+    <t>Matavel</t>
+  </si>
+  <si>
+    <t>Argentina Pedro</t>
+  </si>
+  <si>
+    <t>1988-11-04</t>
+  </si>
+  <si>
+    <t>Pedro Matavel</t>
+  </si>
+  <si>
+    <t>Gilda Celestino Nhandimo</t>
+  </si>
+  <si>
+    <t>110101695637C</t>
+  </si>
+  <si>
+    <t>+258842358143</t>
+  </si>
+  <si>
+    <t>Mariquele</t>
+  </si>
+  <si>
+    <t>Domingos Gochanhane</t>
+  </si>
+  <si>
+    <t>Domingos Zacarias Mariquele</t>
+  </si>
+  <si>
+    <t>Linda Ângelo Vunane</t>
+  </si>
+  <si>
+    <t>110102624857C</t>
+  </si>
+  <si>
+    <t>+258826569415</t>
+  </si>
+  <si>
+    <t>Outra - Cid.Maputo</t>
+  </si>
+  <si>
+    <t>Maquena</t>
+  </si>
+  <si>
+    <t>Marco Aurelio Da Silva</t>
+  </si>
+  <si>
+    <t>1974-09-01</t>
+  </si>
+  <si>
+    <t>Alfredo Joao Maquena</t>
+  </si>
+  <si>
+    <t>Rosa Da  Silva</t>
+  </si>
+  <si>
+    <t>110100143036Q</t>
+  </si>
+  <si>
+    <t>+258843227777</t>
+  </si>
+  <si>
+    <t>Manjate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crimilda Rogerio </t>
+  </si>
+  <si>
+    <t>1995-01-23</t>
+  </si>
+  <si>
+    <t>Rogerio Zacarias Manjate</t>
+  </si>
+  <si>
+    <t>Fatima Carlos Chauque</t>
+  </si>
+  <si>
+    <t>110100601884C</t>
+  </si>
+  <si>
+    <t>+258840529645</t>
+  </si>
+  <si>
+    <t>Manguel</t>
+  </si>
+  <si>
+    <t>Nilton Samuel</t>
+  </si>
+  <si>
+    <t>1994-04-22</t>
+  </si>
+  <si>
+    <t>Samuel AntÓnio</t>
+  </si>
+  <si>
+    <t>Sara JosÉ Muendane</t>
+  </si>
+  <si>
+    <t>100500898923B</t>
+  </si>
+  <si>
+    <t>+258845872250</t>
+  </si>
+  <si>
+    <t>Mangue</t>
+  </si>
+  <si>
+    <t>Irma Maria Jaime</t>
+  </si>
+  <si>
+    <t>1996-07-06</t>
+  </si>
+  <si>
+    <t>Jaime Mangue</t>
+  </si>
+  <si>
+    <t>Maria Julai Mula</t>
+  </si>
+  <si>
+    <t>110101039985I</t>
+  </si>
+  <si>
+    <t>+258842323891</t>
+  </si>
+  <si>
+    <t>Machaieie</t>
+  </si>
+  <si>
+    <t>Nelson Jossefa</t>
+  </si>
+  <si>
+    <t>1993-04-01</t>
+  </si>
+  <si>
+    <t>Jossefa Chissambe Machaieie</t>
+  </si>
+  <si>
+    <t>Benedita Mahoque</t>
+  </si>
+  <si>
+    <t>110102770401J</t>
+  </si>
+  <si>
+    <t>+258825504601</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Quisse Mavota</t>
+  </si>
+  <si>
+    <t>Mabote</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>1982-11-21</t>
+  </si>
+  <si>
+    <t>Casimiro Paulo Mabote</t>
+  </si>
+  <si>
+    <t>Helena Alfredo Dzimba</t>
+  </si>
+  <si>
+    <t>110101797581M</t>
+  </si>
+  <si>
+    <t>+258824030395</t>
+  </si>
+  <si>
+    <t>Lichucha</t>
+  </si>
+  <si>
+    <t>Lazaro Joao Lichucha</t>
+  </si>
+  <si>
+    <t>1975-01-15</t>
+  </si>
+  <si>
+    <t>Ricardo Joao Lichucha</t>
+  </si>
+  <si>
+    <t>Ilda Maria LÁzaro Matimbe</t>
+  </si>
+  <si>
+    <t>110104430724Q</t>
+  </si>
+  <si>
+    <t>+258826452916</t>
+  </si>
+  <si>
+    <t>Instituto Medio de Administracao Estatal</t>
+  </si>
+  <si>
+    <t>Lewane</t>
+  </si>
+  <si>
+    <t>Ernesto Armando</t>
+  </si>
+  <si>
+    <t>1993-09-04</t>
+  </si>
+  <si>
+    <t>Ernesto Armando Lewane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rute Da Conceicao Daniel </t>
+  </si>
+  <si>
+    <t>110102586296M</t>
+  </si>
+  <si>
+    <t>+258845221971</t>
+  </si>
+  <si>
+    <t>Langa</t>
+  </si>
+  <si>
+    <t>Santos Alberto</t>
+  </si>
+  <si>
+    <t>1987-06-14</t>
+  </si>
+  <si>
+    <t>Alberto V. Langa</t>
+  </si>
+  <si>
+    <t>Amelia Salomao Langa</t>
+  </si>
+  <si>
+    <t>110201708349B</t>
+  </si>
+  <si>
+    <t>+258844455771</t>
+  </si>
+  <si>
+    <t>Mauro Azarias</t>
+  </si>
+  <si>
+    <t>1993-08-21</t>
+  </si>
+  <si>
+    <t>Adolfo Azarias Langa</t>
+  </si>
+  <si>
+    <t>Olinda Fernando Honwana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03972193</t>
+  </si>
+  <si>
+    <t>+258845804174</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>Freitas De J Alberto</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>Mavale</t>
-  </si>
-  <si>
-    <t>Marcelo Ediuardo</t>
-  </si>
-  <si>
-    <t>Matavel</t>
-  </si>
-  <si>
-    <t>Argentina Pedro</t>
-  </si>
-  <si>
-    <t>1988-11-04</t>
-  </si>
-  <si>
-    <t>Pedro Matavel</t>
-  </si>
-  <si>
-    <t>Gilda Celestino Nhandimo</t>
-  </si>
-  <si>
-    <t>110101695637C</t>
-  </si>
-  <si>
-    <t>+258842358143</t>
-  </si>
-  <si>
-    <t>Mariquele</t>
-  </si>
-  <si>
-    <t>Domingos Gochanhane</t>
-  </si>
-  <si>
-    <t>Domingos Zacarias Mariquele</t>
-  </si>
-  <si>
-    <t>Linda Ângelo Vunane</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
-    <t>110102624857C</t>
-  </si>
-  <si>
-    <t>+258826569415</t>
-  </si>
-  <si>
-    <t>Outra - Cid.Maputo</t>
-  </si>
-  <si>
-    <t>Maquena</t>
-  </si>
-  <si>
-    <t>Marco Aurelio Da Silva</t>
-  </si>
-  <si>
-    <t>1974-09-01</t>
-  </si>
-  <si>
-    <t>Alfredo Joao Maquena</t>
-  </si>
-  <si>
-    <t>Rosa Da  Silva</t>
-  </si>
-  <si>
-    <t>110100143036Q</t>
-  </si>
-  <si>
-    <t>+258843227777</t>
-  </si>
-  <si>
-    <t>Manjate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crimilda Rogerio </t>
-  </si>
-  <si>
-    <t>1995-01-23</t>
-  </si>
-  <si>
-    <t>Rogerio Zacarias Manjate</t>
-  </si>
-  <si>
-    <t>Fatima Carlos Chauque</t>
-  </si>
-  <si>
-    <t>110100601884C</t>
-  </si>
-  <si>
-    <t>+258840529645</t>
-  </si>
-  <si>
-    <t>Manguel</t>
-  </si>
-  <si>
-    <t>Nilton Samuel</t>
-  </si>
-  <si>
-    <t>1994-04-22</t>
-  </si>
-  <si>
-    <t>Samuel AntÓnio</t>
-  </si>
-  <si>
-    <t>Sara JosÉ Muendane</t>
-  </si>
-  <si>
-    <t>100500898923B</t>
-  </si>
-  <si>
-    <t>+258845872250</t>
-  </si>
-  <si>
-    <t>Mangue</t>
-  </si>
-  <si>
-    <t>Irma Maria Jaime</t>
-  </si>
-  <si>
-    <t>1996-07-06</t>
-  </si>
-  <si>
-    <t>Jaime Mangue</t>
-  </si>
-  <si>
-    <t>Maria Julai Mula</t>
-  </si>
-  <si>
-    <t>110101039985I</t>
-  </si>
-  <si>
-    <t>+258842323891</t>
-  </si>
-  <si>
-    <t>Machaieie</t>
-  </si>
-  <si>
-    <t>Nelson Jossefa</t>
-  </si>
-  <si>
-    <t>1993-04-01</t>
-  </si>
-  <si>
-    <t>Jossefa Chissambe Machaieie</t>
-  </si>
-  <si>
-    <t>Benedita Mahoque</t>
-  </si>
-  <si>
-    <t>110102770401J</t>
-  </si>
-  <si>
-    <t>+258825504601</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Quisse Mavota</t>
-  </si>
-  <si>
-    <t>Mabote</t>
-  </si>
-  <si>
-    <t>Alfredo</t>
-  </si>
-  <si>
-    <t>1982-11-21</t>
-  </si>
-  <si>
-    <t>Casimiro Paulo Mabote</t>
-  </si>
-  <si>
-    <t>Helena Alfredo Dzimba</t>
-  </si>
-  <si>
-    <t>110101797581M</t>
-  </si>
-  <si>
-    <t>+258824030395</t>
-  </si>
-  <si>
-    <t>Lichucha</t>
-  </si>
-  <si>
-    <t>Lazaro Joao Lichucha</t>
-  </si>
-  <si>
-    <t>1975-01-15</t>
-  </si>
-  <si>
-    <t>Ricardo Joao Lichucha</t>
-  </si>
-  <si>
-    <t>Ilda Maria LÁzaro Matimbe</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
-    <t>110104430724Q</t>
-  </si>
-  <si>
-    <t>+258826452916</t>
-  </si>
-  <si>
-    <t>Instituto Medio de Administracao Estatal</t>
-  </si>
-  <si>
-    <t>Lewane</t>
-  </si>
-  <si>
-    <t>Ernesto Armando</t>
-  </si>
-  <si>
-    <t>1993-09-04</t>
-  </si>
-  <si>
-    <t>Ernesto Armando Lewane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rute Da Conceicao Daniel </t>
-  </si>
-  <si>
-    <t>110102586296M</t>
-  </si>
-  <si>
-    <t>+258845221971</t>
-  </si>
-  <si>
-    <t>Langa</t>
-  </si>
-  <si>
-    <t>Santos Alberto</t>
-  </si>
-  <si>
-    <t>1987-06-14</t>
-  </si>
-  <si>
-    <t>Alberto V. Langa</t>
-  </si>
-  <si>
-    <t>Amelia Salomao Langa</t>
-  </si>
-  <si>
-    <t>110201708349B</t>
-  </si>
-  <si>
-    <t>+258844455771</t>
-  </si>
-  <si>
-    <t>Mauro Azarias</t>
-  </si>
-  <si>
-    <t>1993-08-21</t>
-  </si>
-  <si>
-    <t>Adolfo Azarias Langa</t>
-  </si>
-  <si>
-    <t>Olinda Fernando Honwana</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 03972193</t>
-  </si>
-  <si>
-    <t>+258845804174</t>
-  </si>
-  <si>
-    <t>Junior</t>
-  </si>
-  <si>
-    <t>Freitas De J Alberto</t>
-  </si>
-  <si>
     <t>Jambo</t>
   </si>
   <si>
@@ -875,12 +841,6 @@
     <t>+258828635029</t>
   </si>
   <si>
-    <t>Gulube</t>
-  </si>
-  <si>
-    <t>Américo Andre</t>
-  </si>
-  <si>
     <t>Guibunda</t>
   </si>
   <si>
@@ -1014,9 +974,6 @@
   </si>
   <si>
     <t>Cossa</t>
-  </si>
-  <si>
-    <t>Fausa Candido</t>
   </si>
   <si>
     <t>Almeida Salomao</t>
@@ -2591,7 +2548,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2607,7 +2564,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2623,7 +2580,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2639,7 +2596,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2655,7 +2612,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2670,9 +2627,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2680,7 +2635,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2691,7 +2646,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2700,7 +2655,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2712,7 +2667,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2720,7 +2675,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2816,7 +2771,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2859,7 +2814,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3186,7 +3141,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3202,7 +3157,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3218,7 +3173,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3234,7 +3189,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3250,7 +3205,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3265,9 +3220,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3275,7 +3228,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3286,7 +3239,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3295,7 +3248,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3307,7 +3260,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3315,7 +3268,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3411,7 +3364,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3454,7 +3407,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3781,7 +3734,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3797,7 +3750,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3813,7 +3766,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3829,7 +3782,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3845,7 +3798,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3860,9 +3813,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3870,7 +3821,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3881,7 +3832,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3890,7 +3841,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3902,7 +3853,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3910,7 +3861,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4006,7 +3957,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4049,7 +4000,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4376,7 +4327,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4392,7 +4343,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4408,7 +4359,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4424,7 +4375,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4440,7 +4391,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4455,9 +4406,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4465,7 +4414,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4476,7 +4425,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4485,7 +4434,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4497,7 +4446,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4601,7 +4550,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4644,7 +4593,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4971,7 +4920,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4987,7 +4936,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5003,7 +4952,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5019,7 +4968,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5035,7 +4984,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5050,9 +4999,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5060,7 +5007,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5071,7 +5018,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5080,7 +5027,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5092,7 +5039,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5100,7 +5047,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5196,7 +5143,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5239,7 +5186,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5566,7 +5513,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5582,7 +5529,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5598,7 +5545,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5614,7 +5561,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5630,7 +5577,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5645,9 +5592,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5655,7 +5600,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5666,7 +5611,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5675,7 +5620,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5687,7 +5632,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5695,7 +5640,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5791,7 +5736,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5834,7 +5779,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6161,7 +6106,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6177,7 +6122,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6193,7 +6138,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6209,7 +6154,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6225,7 +6170,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6240,9 +6185,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6250,7 +6193,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6261,7 +6204,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6270,7 +6213,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6282,7 +6225,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6290,7 +6233,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6386,7 +6329,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6429,7 +6372,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6680,7 +6623,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -6730,7 +6675,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154421</v>
+        <v>20151356</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6754,7 +6699,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6770,7 +6715,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6785,7 +6730,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -6799,7 +6746,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -6813,7 +6762,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>167</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -6834,7 +6785,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -6843,14 +6796,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -6860,13 +6817,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>168</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -6987,7 +6948,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -7001,7 +6964,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -7251,7 +7216,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -7301,7 +7268,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154522</v>
+        <v>20151354</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7356,7 +7323,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -7370,7 +7339,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -7384,7 +7355,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>173</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -7405,7 +7378,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -7414,14 +7389,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -7431,13 +7410,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>174</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -7532,7 +7515,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7558,7 +7541,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -7572,7 +7557,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -7874,7 +7861,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151356</v>
+        <v>20151335</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7898,7 +7885,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7914,7 +7901,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7930,7 +7917,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7946,7 +7933,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7962,7 +7949,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7977,9 +7964,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7987,7 +7972,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7998,7 +7983,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8007,7 +7992,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8019,7 +8004,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8027,7 +8012,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8123,7 +8108,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8150,7 +8135,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>1991</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8166,7 +8151,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8572,9 +8557,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8582,7 +8565,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8593,7 +8576,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8602,7 +8585,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8614,7 +8597,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8622,7 +8605,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8718,7 +8701,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8761,7 +8744,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9064,7 +9047,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151354</v>
+        <v>20151331</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9088,7 +9071,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9104,7 +9087,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9120,7 +9103,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9136,7 +9119,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9152,7 +9135,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9167,9 +9150,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>183</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9177,7 +9158,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9188,7 +9169,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9197,7 +9178,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9209,7 +9190,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9217,7 +9198,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9313,7 +9294,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9340,7 +9321,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9356,7 +9337,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9659,7 +9640,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151335</v>
+        <v>20151365</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9683,7 +9664,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9699,7 +9680,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9715,7 +9696,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9731,7 +9712,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9747,7 +9728,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9762,9 +9743,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9772,7 +9751,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9783,7 +9762,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9792,7 +9771,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9804,7 +9783,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9812,7 +9791,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9908,7 +9887,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9935,7 +9914,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>1991</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9951,7 +9930,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10254,7 +10233,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151331</v>
+        <v>20151333</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10278,7 +10257,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10294,7 +10273,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10310,7 +10289,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10326,7 +10305,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10342,7 +10321,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10357,9 +10336,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10367,7 +10344,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10378,7 +10355,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10387,7 +10364,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10399,7 +10376,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10407,7 +10384,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10503,7 +10480,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10530,7 +10507,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10546,7 +10523,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10849,7 +10826,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151365</v>
+        <v>20151321</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10873,7 +10850,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10889,7 +10866,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10905,7 +10882,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10921,7 +10898,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10937,7 +10914,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10952,9 +10929,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10962,7 +10937,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10973,7 +10948,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10982,7 +10957,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10994,7 +10969,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11002,7 +10977,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11098,7 +11073,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11125,7 +11100,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11141,7 +11116,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11444,7 +11419,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151333</v>
+        <v>20151369</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11468,7 +11443,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11484,7 +11459,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11500,7 +11475,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11516,7 +11491,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11532,7 +11507,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11547,9 +11522,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>183</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11557,7 +11530,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11568,7 +11541,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11577,7 +11550,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11589,7 +11562,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11597,7 +11570,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11693,7 +11666,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11720,7 +11693,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11736,7 +11709,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12039,7 +12012,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151321</v>
+        <v>20151367</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12063,7 +12036,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12079,7 +12052,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12095,7 +12068,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12111,7 +12084,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12127,7 +12100,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12142,9 +12115,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12152,7 +12123,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12163,7 +12134,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12172,7 +12143,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12184,7 +12155,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12192,7 +12163,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12288,7 +12259,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12315,7 +12286,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12331,7 +12302,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12634,7 +12605,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151369</v>
+        <v>20151352</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12658,7 +12629,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12674,7 +12645,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12690,7 +12661,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12706,7 +12677,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12722,7 +12693,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12737,9 +12708,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12747,7 +12716,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12758,7 +12727,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12767,7 +12736,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12779,7 +12748,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12787,7 +12756,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12883,7 +12852,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12910,7 +12879,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12926,7 +12895,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13229,7 +13198,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151367</v>
+        <v>20151348</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13253,7 +13222,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13269,7 +13238,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13285,7 +13254,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13301,7 +13270,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13317,7 +13286,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13332,9 +13301,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>235</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13342,7 +13309,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13353,7 +13320,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13362,7 +13329,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13374,7 +13341,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13382,7 +13349,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13478,7 +13445,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13505,7 +13472,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13521,7 +13488,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>238</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13824,7 +13791,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151352</v>
+        <v>20151363</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13848,7 +13815,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13864,7 +13831,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13880,7 +13847,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13896,7 +13863,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13912,7 +13879,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13927,9 +13894,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13937,7 +13902,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13948,7 +13913,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13957,7 +13922,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13969,7 +13934,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13977,7 +13942,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14073,7 +14038,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14100,7 +14065,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14116,7 +14081,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14419,7 +14384,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151348</v>
+        <v>20151320</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14443,7 +14408,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14459,7 +14424,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14474,9 +14439,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>248</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -14490,9 +14453,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>249</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -14506,9 +14467,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>250</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -14522,18 +14481,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>63</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -14542,18 +14497,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -14563,17 +14514,13 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>251</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -14668,7 +14615,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14694,9 +14641,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2010</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -14710,9 +14655,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -15038,7 +14981,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15054,7 +14997,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15070,7 +15013,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15086,7 +15029,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15102,7 +15045,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15117,9 +15060,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15127,7 +15068,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15138,7 +15079,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15147,7 +15088,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15159,7 +15100,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15167,7 +15108,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15263,7 +15204,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15306,7 +15247,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15609,7 +15550,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151363</v>
+        <v>20151340</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15633,7 +15574,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15649,7 +15590,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15665,7 +15606,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15681,7 +15622,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15697,7 +15638,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15712,9 +15653,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15722,7 +15661,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15733,7 +15672,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15742,7 +15681,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15754,15 +15693,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>257</v>
+      <c r="H17" s="20">
+        <v>110101657472</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15858,7 +15797,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15885,7 +15824,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15901,7 +15840,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16204,7 +16143,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151320</v>
+        <v>20151341</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16228,7 +16167,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16244,7 +16183,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16259,7 +16198,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>259</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -16273,7 +16214,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>260</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -16287,7 +16230,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>261</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -16308,7 +16253,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -16317,14 +16264,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -16334,13 +16285,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -16435,7 +16390,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16461,7 +16416,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -16475,7 +16432,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>264</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -16777,7 +16736,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151340</v>
+        <v>20151337</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16801,7 +16760,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16817,7 +16776,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16833,7 +16792,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16849,7 +16808,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16865,7 +16824,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16880,9 +16839,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16890,7 +16847,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16901,7 +16858,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16910,7 +16867,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16922,15 +16879,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>110101657472</v>
+      <c r="H17" s="20" t="s">
+        <v>270</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17026,7 +16983,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17053,7 +17010,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17069,7 +17026,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17320,7 +17277,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -17370,7 +17329,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154420</v>
+        <v>20151347</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17394,7 +17353,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17410,7 +17369,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17425,7 +17384,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -17439,7 +17400,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>275</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -17453,7 +17416,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>276</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -17474,7 +17439,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -17483,14 +17450,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -17500,13 +17471,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>277</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -17601,7 +17576,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>169</v>
+        <v>278</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17627,7 +17602,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -17641,7 +17618,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -17943,7 +17922,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151341</v>
+        <v>20151350</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17967,7 +17946,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17983,7 +17962,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17999,7 +17978,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18015,7 +17994,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18031,7 +18010,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18046,9 +18025,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18056,7 +18033,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18067,7 +18044,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18076,7 +18053,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18088,7 +18065,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18096,7 +18073,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18192,7 +18169,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18219,7 +18196,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18235,7 +18212,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>276</v>
+        <v>129</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18538,7 +18515,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151337</v>
+        <v>20151327</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18562,7 +18539,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18578,7 +18555,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18594,7 +18571,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18610,7 +18587,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18626,7 +18603,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18641,9 +18618,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18651,7 +18626,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18662,7 +18637,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18671,7 +18646,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18683,7 +18658,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18691,7 +18666,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18787,7 +18762,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18814,7 +18789,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18830,7 +18805,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19133,7 +19108,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151347</v>
+        <v>20151357</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19157,7 +19132,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19173,7 +19148,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19189,7 +19164,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19205,7 +19180,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19221,7 +19196,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19236,9 +19211,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19246,7 +19219,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19257,7 +19230,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19266,7 +19239,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19278,7 +19251,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19286,7 +19259,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19382,7 +19355,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19409,7 +19382,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19425,7 +19398,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>186</v>
+        <v>300</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19728,7 +19701,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151350</v>
+        <v>20151328</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19752,7 +19725,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19768,7 +19741,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19784,7 +19757,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19800,7 +19773,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19816,7 +19789,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19831,9 +19804,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>183</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19841,7 +19812,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19852,7 +19823,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19861,7 +19832,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19873,7 +19844,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19881,7 +19852,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19977,7 +19948,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20020,7 +19991,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20323,7 +20294,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151327</v>
+        <v>20151338</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20347,7 +20318,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20363,7 +20334,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20379,7 +20350,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20395,7 +20366,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20411,7 +20382,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20426,9 +20397,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20436,7 +20405,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20447,7 +20416,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20456,7 +20425,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20468,7 +20437,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20476,7 +20445,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20572,7 +20541,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20599,7 +20568,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20615,7 +20584,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>300</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20918,7 +20887,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151357</v>
+        <v>20151353</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20942,7 +20911,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20958,7 +20927,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20974,7 +20943,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20990,7 +20959,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21006,7 +20975,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21021,9 +20990,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21031,7 +20998,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21042,7 +21009,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21051,7 +21018,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21063,7 +21030,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21071,7 +21038,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21167,7 +21134,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21210,7 +21177,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21537,7 +21504,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21553,7 +21520,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21569,7 +21536,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21585,7 +21552,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21601,7 +21568,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21616,9 +21583,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21626,7 +21591,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21637,7 +21602,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21646,7 +21611,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21658,7 +21623,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21666,7 +21631,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21762,7 +21727,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21805,7 +21770,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22056,7 +22021,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -22106,7 +22073,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154422</v>
+        <v>20151336</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22130,7 +22097,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22146,7 +22113,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22161,7 +22128,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>324</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -22175,7 +22144,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>325</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -22189,7 +22160,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>326</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -22210,7 +22183,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -22219,14 +22194,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -22236,13 +22215,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>327</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -22337,7 +22320,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>169</v>
+        <v>328</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22363,7 +22346,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -22377,7 +22362,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -22679,7 +22666,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151328</v>
+        <v>20151343</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22703,7 +22690,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22719,7 +22706,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22735,7 +22722,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22751,7 +22738,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22767,7 +22754,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22782,9 +22769,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22792,7 +22777,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22803,7 +22788,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22812,7 +22797,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22824,7 +22809,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22832,7 +22817,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22928,7 +22913,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22955,7 +22940,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22971,7 +22956,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23274,7 +23259,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151338</v>
+        <v>20151322</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23298,7 +23283,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23314,7 +23299,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23330,7 +23315,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23346,7 +23331,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23362,7 +23347,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23377,9 +23362,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23387,7 +23370,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23398,7 +23381,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23407,7 +23390,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23419,7 +23402,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23427,7 +23410,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23523,7 +23506,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23550,7 +23533,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23566,7 +23549,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>312</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23869,7 +23852,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151353</v>
+        <v>20151358</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23893,7 +23876,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23909,7 +23892,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23925,7 +23908,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23941,7 +23924,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23957,7 +23940,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23972,9 +23955,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23982,7 +23963,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23993,7 +23974,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24002,7 +23983,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24014,7 +23995,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24022,7 +24003,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24118,7 +24099,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24145,7 +24126,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -24161,7 +24142,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>186</v>
+        <v>350</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24464,7 +24445,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151336</v>
+        <v>20151346</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24488,7 +24469,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24504,7 +24485,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24520,7 +24501,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24536,7 +24517,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24552,7 +24533,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24567,9 +24548,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24577,7 +24556,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24588,7 +24567,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24597,7 +24576,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24609,7 +24588,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24617,7 +24596,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24713,7 +24692,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24740,7 +24719,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -24756,7 +24735,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25059,7 +25038,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151343</v>
+        <v>20151329</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -25083,7 +25062,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25099,7 +25078,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25115,7 +25094,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25131,7 +25110,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25147,7 +25126,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25162,9 +25141,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25172,7 +25149,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25183,7 +25160,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25192,7 +25169,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25204,7 +25181,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25212,7 +25189,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25308,7 +25285,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25335,7 +25312,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -25351,7 +25328,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25654,7 +25631,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151322</v>
+        <v>20151349</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -25678,7 +25655,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25694,7 +25671,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25710,7 +25687,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25726,7 +25703,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25742,7 +25719,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25757,9 +25734,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25767,7 +25742,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25778,7 +25753,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25787,7 +25762,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25799,7 +25774,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25807,7 +25782,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25903,7 +25878,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25930,7 +25905,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -25946,7 +25921,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26249,7 +26224,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151358</v>
+        <v>20151362</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26273,7 +26248,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26289,7 +26264,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26305,7 +26280,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26321,7 +26296,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26337,7 +26312,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26352,9 +26327,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26362,7 +26335,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26373,7 +26346,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26382,7 +26355,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26394,7 +26367,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26402,7 +26375,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26498,7 +26471,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26525,7 +26498,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -26541,7 +26514,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>363</v>
+        <v>74</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26844,7 +26817,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151346</v>
+        <v>20151324</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26868,7 +26841,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26884,7 +26857,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26900,7 +26873,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26916,7 +26889,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26932,7 +26905,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26947,9 +26920,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26957,7 +26928,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26968,7 +26939,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26977,7 +26948,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26989,7 +26960,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26997,7 +26968,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27093,7 +27064,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27120,7 +27091,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -27136,7 +27107,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27439,7 +27410,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151329</v>
+        <v>20151339</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -27463,7 +27434,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27479,7 +27450,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27495,7 +27466,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27511,7 +27482,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27527,7 +27498,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27542,9 +27513,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27552,7 +27521,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27563,7 +27532,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27572,7 +27541,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27584,7 +27553,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27592,7 +27561,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27688,7 +27657,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27731,7 +27700,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28058,7 +28027,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28074,7 +28043,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28090,7 +28059,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28106,7 +28075,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28122,7 +28091,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28137,9 +28106,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28147,7 +28114,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28158,7 +28125,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28167,7 +28134,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28179,7 +28146,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28187,7 +28154,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28283,7 +28250,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28326,7 +28293,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28629,7 +28596,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151349</v>
+        <v>20151345</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -28653,7 +28620,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28669,7 +28636,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28685,7 +28652,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28701,7 +28668,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28717,7 +28684,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28732,9 +28699,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>183</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28742,7 +28707,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28753,7 +28718,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28762,7 +28727,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28774,7 +28739,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28782,7 +28747,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28878,7 +28843,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28905,7 +28870,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -28921,7 +28886,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29224,7 +29189,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151362</v>
+        <v>20151359</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -29248,7 +29213,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29264,7 +29229,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29280,7 +29245,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29296,7 +29261,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29312,7 +29277,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29327,9 +29292,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29337,7 +29300,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29348,7 +29311,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29357,7 +29320,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29369,7 +29332,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29377,7 +29340,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29473,7 +29436,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29500,7 +29463,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -29516,7 +29479,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29719,2386 +29682,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151324</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2012</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151339</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>405</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151345</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151359</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>419</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -32122,7 +29705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -32279,7 +29862,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32295,7 +29878,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32311,7 +29894,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32327,7 +29910,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32343,7 +29926,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32358,9 +29941,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32368,7 +29949,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32379,7 +29960,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32388,7 +29969,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32400,7 +29981,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32504,7 +30085,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32547,7 +30128,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -32874,7 +30455,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32890,7 +30471,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32906,7 +30487,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32922,7 +30503,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32938,7 +30519,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32953,9 +30534,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32963,7 +30542,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32974,7 +30553,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32983,7 +30562,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32995,7 +30574,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -33003,7 +30582,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -33099,7 +30678,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33142,7 +30721,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -33469,7 +31048,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -33485,7 +31064,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33501,7 +31080,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -33517,7 +31096,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33533,7 +31112,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33548,9 +31127,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33558,7 +31135,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33569,7 +31146,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33578,7 +31155,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33590,7 +31167,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -33694,7 +31271,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33737,7 +31314,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -34064,7 +31641,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -34080,7 +31657,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -34096,7 +31673,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -34112,7 +31689,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -34128,7 +31705,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -34143,9 +31720,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -34153,7 +31728,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -34164,7 +31739,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -34173,7 +31748,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -34185,7 +31760,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -34193,7 +31768,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -34289,7 +31864,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -34332,7 +31907,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
